--- a/hoja borrador ajuste ppto.xlsx
+++ b/hoja borrador ajuste ppto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegohaisch/Documents/03. Planning/2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegohaisch/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:M17"/>
+  <dimension ref="D7:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,43 +558,48 @@
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="4">
         <f>+SUM(E17:M17)</f>
-        <v>1632679.8051957153</v>
+        <v>1512679.805195715</v>
       </c>
       <c r="E17" s="3">
         <f>+E15+E16</f>
         <v>228394.73203200003</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:M17" si="0">+F15+F16</f>
-        <v>164066.65536</v>
+        <f>(+F15+F16)-20000</f>
+        <v>144066.65536</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>147288.65279999998</v>
+        <f>(+G15+G16)-20000</f>
+        <v>127288.65279999998</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>175586.53555200002</v>
+        <f>(+H15+H16)-20000</f>
+        <v>155586.53555200002</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>142284.44160000002</v>
+        <f>(+I15+I16)-20000</f>
+        <v>122284.44160000002</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>179920</v>
+        <f>(+J15+J16)-20000</f>
+        <v>159920</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>421000</v>
+        <f>(+K15+K16)-20000</f>
+        <v>401000</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F17:M17" si="0">+L15+L16</f>
         <v>120040</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="0"/>
         <v>54098.787851714966</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
